--- a/students_files/template-KONGO/template-KONGO_files/planning-1year.xlsx
+++ b/students_files/template-KONGO/template-KONGO_files/planning-1year.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BTC\Documents\Infineon\this week\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BTC\Documents\Infineon\GitHub\Excellence-Program\students_files\template-KONGO\template-KONGO_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94CA945-DDE9-44B5-951E-B878092B2F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D56D93-7245-446D-8E4E-21FB201B4FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Duration" sheetId="1" r:id="rId1"/>
+    <sheet name="Cost" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>Tasks</t>
   </si>
@@ -92,11 +93,26 @@
   <si>
     <t xml:space="preserve">cumulative actual durations </t>
   </si>
+  <si>
+    <t xml:space="preserve">cumulative actual cost </t>
+  </si>
+  <si>
+    <t>cumulative planned cost</t>
+  </si>
+  <si>
+    <t>actual cost F CFA</t>
+  </si>
+  <si>
+    <t>planned cost F CFA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="_-* #,##0\ &quot;CFA&quot;_-;\-* #,##0\ &quot;CFA&quot;_-;_-* &quot;-&quot;??\ &quot;CFA&quot;_-;_-@_-"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -198,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -220,11 +236,31 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="10">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0\ &quot;CFA&quot;_-;\-* #,##0\ &quot;CFA&quot;_-;_-* &quot;-&quot;??\ &quot;CFA&quot;_-;_-@_-"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0\ &quot;CFA&quot;_-;\-* #,##0\ &quot;CFA&quot;_-;_-* &quot;-&quot;??\ &quot;CFA&quot;_-;_-@_-"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -354,7 +390,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$E$1</c:f>
+              <c:f>Duration!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -377,7 +413,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$B$2:$B$13</c:f>
+              <c:f>Duration!$B$2:$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -421,7 +457,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$E$2:$E$13</c:f>
+              <c:f>Duration!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -476,7 +512,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$G$1</c:f>
+              <c:f>Duration!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -500,7 +536,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$B$2:$B$13</c:f>
+              <c:f>Duration!$B$2:$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -544,7 +580,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$G$2:$G$13</c:f>
+              <c:f>Duration!$G$2:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="12"/>
@@ -599,7 +635,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$F$1</c:f>
+              <c:f>Duration!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -622,7 +658,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$B$2:$B$13</c:f>
+              <c:f>Duration!$B$2:$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -666,7 +702,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$F$2:$F$13</c:f>
+              <c:f>Duration!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -738,7 +774,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Feuil1!$C$1</c15:sqref>
+                          <c15:sqref>Duration!$C$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -767,7 +803,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Feuil1!$B$2:$B$13</c15:sqref>
+                          <c15:sqref>Duration!$B$2:$B$13</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -817,7 +853,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Feuil1!$C$2:$C$13</c15:sqref>
+                          <c15:sqref>Duration!$C$2:$C$13</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -880,7 +916,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Feuil1!$D$1</c15:sqref>
+                          <c15:sqref>Duration!$D$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -909,7 +945,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Feuil1!$B$2:$B$13</c15:sqref>
+                          <c15:sqref>Duration!$B$2:$B$13</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -959,7 +995,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Feuil1!$D$2:$D$13</c15:sqref>
+                          <c15:sqref>Duration!$D$2:$D$13</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1003,6 +1039,946 @@
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-6738-4F84-A605-3B93AC46DEE0}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="148050543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-BF"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="148050959"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="148050959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-BF"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="148050543"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-BF"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-BF"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>planned cost vs actual cost</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.3107263180845018"/>
+          <c:y val="7.8271514330389508E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-BF"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.6972439290430381E-2"/>
+          <c:y val="7.3001430497337746E-2"/>
+          <c:w val="0.92360484857506453"/>
+          <c:h val="0.43400116631424807"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cost!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>corrective</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Cost!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>buy the land</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hire workers</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>build warehouses</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>setup the irrigation system using automatic irrigation system</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>setup an energy supply system using solar tracking system and energy manager ,</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>prepare the land (use some fertilizer)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>plant some cowpeas</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>manage pest and diseases,</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>harvesting</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>store the crops using smart dryer</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>manage access using Face Recognition</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Start selling product</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cost!$F$2:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>6000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8700000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11200000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16700000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17075000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17300000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17300000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17300000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18225000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19912500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21600000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FBC1-4CEE-8210-1BD0F3E4AD9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cost!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cumulative actual cost </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Cost!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>buy the land</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hire workers</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>build warehouses</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>setup the irrigation system using automatic irrigation system</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>setup an energy supply system using solar tracking system and energy manager ,</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>prepare the land (use some fertilizer)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>plant some cowpeas</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>manage pest and diseases,</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>harvesting</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>store the crops using smart dryer</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>manage access using Face Recognition</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Start selling product</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cost!$E$2:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>6000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8700000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11200000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16700000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17075000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17300000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17300000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17300000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18225000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FBC1-4CEE-8210-1BD0F3E4AD9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cost!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cumulative planned cost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Cost!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>buy the land</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hire workers</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>build warehouses</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>setup the irrigation system using automatic irrigation system</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>setup an energy supply system using solar tracking system and energy manager ,</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>prepare the land (use some fertilizer)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>plant some cowpeas</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>manage pest and diseases,</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>harvesting</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>store the crops using smart dryer</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>manage access using Face Recognition</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Start selling product</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cost!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18800000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19600000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19600000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19600000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20600000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21600000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21600000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FBC1-4CEE-8210-1BD0F3E4AD9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="148050543"/>
+        <c:axId val="148050959"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Cost!$B$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>planned cost F CFA</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Cost!$A$2:$A$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>buy the land</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>hire workers</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>build warehouses</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>setup the irrigation system using automatic irrigation system</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>setup an energy supply system using solar tracking system and energy manager ,</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>prepare the land (use some fertilizer)</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>plant some cowpeas</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>manage pest and diseases,</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>harvesting</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>store the crops using smart dryer</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>manage access using Face Recognition</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>Start selling product</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Cost!$B$2:$B$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>_-* #,##0\ "CFA"_-;\-* #,##0\ "CFA"_-;_-* "-"??\ "CFA"_-;_-@_-</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>5000000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3000000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4000000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3800000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3000000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>500000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>300000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-FBC1-4CEE-8210-1BD0F3E4AD9C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Cost!$C$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>actual cost F CFA</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Cost!$A$2:$A$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>buy the land</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>hire workers</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>build warehouses</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>setup the irrigation system using automatic irrigation system</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>setup an energy supply system using solar tracking system and energy manager ,</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>prepare the land (use some fertilizer)</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>plant some cowpeas</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>manage pest and diseases,</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>harvesting</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>store the crops using smart dryer</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>manage access using Face Recognition</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>Start selling product</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Cost!$C$2:$C$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>_-* #,##0\ "CFA"_-;\-* #,##0\ "CFA"_-;_-* "-"??\ "CFA"_-;_-@_-</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>6000000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2700000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2500000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3000000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2500000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>375000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>225000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>925000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-FBC1-4CEE-8210-1BD0F3E4AD9C}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -1233,7 +2209,550 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1777,21 +3296,85 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>758825</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graphique 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90148778-75DC-46E8-AB1E-3DDCAEFD2F1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{72770A18-9421-4B9F-89B2-DBF076EC7A19}" name="Tableau1" displayName="Tableau1" ref="B1:G13" totalsRowShown="0">
   <autoFilter ref="B1:G13" xr:uid="{72770A18-9421-4B9F-89B2-DBF076EC7A19}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{AB60D0D0-3D2E-451B-8163-2159E9B7FCB1}" name="Tasks"/>
-    <tableColumn id="2" xr3:uid="{B2F1D556-5429-41DD-A296-52DD6CB98949}" name="planned duration (weeks)" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{23874EC3-7CB3-4174-A3D2-4526C367438F}" name="actual duration (weeks)" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{E7F43B15-DAFC-43CC-AB67-67ED28576730}" name="cumulative planned durations" dataDxfId="2">
+    <tableColumn id="2" xr3:uid="{B2F1D556-5429-41DD-A296-52DD6CB98949}" name="planned duration (weeks)" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{23874EC3-7CB3-4174-A3D2-4526C367438F}" name="actual duration (weeks)" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{E7F43B15-DAFC-43CC-AB67-67ED28576730}" name="cumulative planned durations" dataDxfId="7">
       <calculatedColumnFormula>E1+C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{10463ECD-B524-429F-8D19-CD7D976960AB}" name="cumulative actual durations " dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{10463ECD-B524-429F-8D19-CD7D976960AB}" name="cumulative actual durations " dataDxfId="6">
       <calculatedColumnFormula>IF(D2="","",F1+D2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{B998FBA3-34AA-42F0-B536-9058455EEC34}" name="corrective" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{B998FBA3-34AA-42F0-B536-9058455EEC34}" name="corrective" dataDxfId="5">
       <calculatedColumnFormula>IF(ISNA(Tableau1[[#This Row],[cumulative actual durations ]]),J6,Tableau1[[#This Row],[cumulative actual durations ]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FE879BC4-8A43-44CD-8B64-3B6747A5F74B}" name="Tableau15" displayName="Tableau15" ref="A1:F13" totalsRowShown="0">
+  <autoFilter ref="A1:F13" xr:uid="{FE879BC4-8A43-44CD-8B64-3B6747A5F74B}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{A5D10605-F700-48FA-BD91-C579E261DE75}" name="Tasks"/>
+    <tableColumn id="2" xr3:uid="{9EA99BE5-84F9-45A1-8797-D87430A98E5B}" name="planned cost F CFA" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{86CBF882-CD81-4704-8301-C2567B75E310}" name="actual cost F CFA" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{DF9CA2FE-893C-4B3C-BF84-ED76065B8861}" name="cumulative planned cost" dataDxfId="1">
+      <calculatedColumnFormula>D1+B2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{2E80369F-4B82-4F5D-B308-C4EDBFD103D1}" name="cumulative actual cost " dataDxfId="4">
+      <calculatedColumnFormula>IF(C2="","",E1+C2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{AE558D09-A4B3-4B22-BFFF-F84B5C2344B3}" name="corrective" dataDxfId="3">
+      <calculatedColumnFormula>IF(ISNA(Tableau15[[#This Row],[cumulative actual cost ]]),I6,Tableau15[[#This Row],[cumulative actual cost ]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2063,8 +3646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -2406,4 +3989,349 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97754E46-76CB-497F-9FF1-60586D78BFCC}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="50.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.2265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>5000000</v>
+      </c>
+      <c r="C2" s="11">
+        <v>6000000</v>
+      </c>
+      <c r="D2" s="6">
+        <f>B2</f>
+        <v>5000000</v>
+      </c>
+      <c r="E2" s="6">
+        <f>C2</f>
+        <v>6000000</v>
+      </c>
+      <c r="F2" s="6">
+        <f>IF(ISNA(Tableau15[[#This Row],[cumulative actual cost ]]),I6,Tableau15[[#This Row],[cumulative actual cost ]])</f>
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>3000000</v>
+      </c>
+      <c r="C3" s="11">
+        <v>2700000</v>
+      </c>
+      <c r="D3" s="6">
+        <f>D2+B3</f>
+        <v>8000000</v>
+      </c>
+      <c r="E3" s="6">
+        <f>IF(C3="",NA(),E2+C3)</f>
+        <v>8700000</v>
+      </c>
+      <c r="F3" s="7">
+        <f>IF(ISNA(Tableau15[[#This Row],[cumulative actual cost ]]),$I$6+F2,Tableau15[[#This Row],[cumulative actual cost ]])</f>
+        <v>8700000</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3">
+        <f>_xlfn.AGGREGATE(4,6,Tableau15[[cumulative actual cost ]])</f>
+        <v>18225000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>4000000</v>
+      </c>
+      <c r="C4" s="11">
+        <v>2500000</v>
+      </c>
+      <c r="D4" s="6">
+        <f t="shared" ref="D4:D13" si="0">D3+B4</f>
+        <v>12000000</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" ref="E4:E13" si="1">IF(C4="",NA(),E3+C4)</f>
+        <v>11200000</v>
+      </c>
+      <c r="F4" s="7">
+        <f>IF(ISNA(Tableau15[[#This Row],[cumulative actual cost ]]),$I$6+F3,Tableau15[[#This Row],[cumulative actual cost ]])</f>
+        <v>11200000</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4">
+        <f>_xlfn.AGGREGATE(4,6,Tableau15[cumulative planned cost])</f>
+        <v>21600000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>3800000</v>
+      </c>
+      <c r="C5" s="11">
+        <v>3000000</v>
+      </c>
+      <c r="D5" s="6">
+        <f t="shared" si="0"/>
+        <v>15800000</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" si="1"/>
+        <v>14200000</v>
+      </c>
+      <c r="F5" s="7">
+        <f>IF(ISNA(Tableau15[[#This Row],[cumulative actual cost ]]),$I$6+F4,Tableau15[[#This Row],[cumulative actual cost ]])</f>
+        <v>14200000</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5">
+        <f>COUNTIF(Tableau15[[cumulative actual cost ]],"#N/A")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>3000000</v>
+      </c>
+      <c r="C6" s="11">
+        <v>2500000</v>
+      </c>
+      <c r="D6" s="6">
+        <f t="shared" si="0"/>
+        <v>18800000</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="1"/>
+        <v>16700000</v>
+      </c>
+      <c r="F6" s="7">
+        <f>IF(ISNA(Tableau15[[#This Row],[cumulative actual cost ]]),$I$6+F5,Tableau15[[#This Row],[cumulative actual cost ]])</f>
+        <v>16700000</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6">
+        <f>(I4-I3)/I5</f>
+        <v>1687500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>500000</v>
+      </c>
+      <c r="C7" s="11">
+        <v>375000</v>
+      </c>
+      <c r="D7" s="6">
+        <f t="shared" si="0"/>
+        <v>19300000</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="1"/>
+        <v>17075000</v>
+      </c>
+      <c r="F7" s="7">
+        <f>IF(ISNA(Tableau15[[#This Row],[cumulative actual cost ]]),$I$6+F6,Tableau15[[#This Row],[cumulative actual cost ]])</f>
+        <v>17075000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>300000</v>
+      </c>
+      <c r="C8" s="11">
+        <v>225000</v>
+      </c>
+      <c r="D8" s="6">
+        <f t="shared" si="0"/>
+        <v>19600000</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="1"/>
+        <v>17300000</v>
+      </c>
+      <c r="F8" s="7">
+        <f>IF(ISNA(Tableau15[[#This Row],[cumulative actual cost ]]),$I$6+F7,Tableau15[[#This Row],[cumulative actual cost ]])</f>
+        <v>17300000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="11">
+        <v>0</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <f t="shared" si="0"/>
+        <v>19600000</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="1"/>
+        <v>17300000</v>
+      </c>
+      <c r="F9" s="7">
+        <f>IF(ISNA(Tableau15[[#This Row],[cumulative actual cost ]]),$I$6+F8,Tableau15[[#This Row],[cumulative actual cost ]])</f>
+        <v>17300000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11">
+        <v>0</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <f t="shared" si="0"/>
+        <v>19600000</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" si="1"/>
+        <v>17300000</v>
+      </c>
+      <c r="F10" s="7">
+        <f>IF(ISNA(Tableau15[[#This Row],[cumulative actual cost ]]),$I$6+F9,Tableau15[[#This Row],[cumulative actual cost ]])</f>
+        <v>17300000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>1000000</v>
+      </c>
+      <c r="C11" s="11">
+        <v>925000</v>
+      </c>
+      <c r="D11" s="6">
+        <f t="shared" si="0"/>
+        <v>20600000</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" si="1"/>
+        <v>18225000</v>
+      </c>
+      <c r="F11" s="7">
+        <f>IF(ISNA(Tableau15[[#This Row],[cumulative actual cost ]]),$I$6+F10,Tableau15[[#This Row],[cumulative actual cost ]])</f>
+        <v>18225000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11">
+        <v>1000000</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="6">
+        <f t="shared" si="0"/>
+        <v>21600000</v>
+      </c>
+      <c r="E12" s="6" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F12" s="7">
+        <f>IF(ISNA(Tableau15[[#This Row],[cumulative actual cost ]]),$I$6+F11,Tableau15[[#This Row],[cumulative actual cost ]])</f>
+        <v>19912500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <v>0</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="6">
+        <f t="shared" si="0"/>
+        <v>21600000</v>
+      </c>
+      <c r="E13" s="6" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F13" s="7">
+        <f>IF(ISNA(Tableau15[[#This Row],[cumulative actual cost ]]),$I$6+F12,Tableau15[[#This Row],[cumulative actual cost ]])</f>
+        <v>21600000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>